--- a/gameCSV/Actor_RobotObj_01_Ksetting.xlsx
+++ b/gameCSV/Actor_RobotObj_01_Ksetting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\QuantumCoreRobotReMake\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\QuantumCoreRobotReMake\gameCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85B192F4-28E3-4AB2-A3C5-3EB1E51E99A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38B846B9-89D1-49B0-A6C2-0350A69CC829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28425" yWindow="3090" windowWidth="17160" windowHeight="10980" xr2:uid="{4A88D659-4C13-44B6-A2BE-41980A9F7671}"/>
+    <workbookView xWindow="-14595" yWindow="9315" windowWidth="17160" windowHeight="10980" xr2:uid="{4A88D659-4C13-44B6-A2BE-41980A9F7671}"/>
   </bookViews>
   <sheets>
     <sheet name="Actor_RobotObj_01_Ksetting" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -99,50 +91,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>on</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>armIK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>obj1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>objEE01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Set Obj data:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>target01</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>0: pos_to_pos</t>
   </si>
   <si>
-    <t>obj2</t>
+    <t>RATA01</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>obj3</t>
+    <t>RA01</t>
+  </si>
+  <si>
+    <t>RA02</t>
+  </si>
+  <si>
+    <t>RA03</t>
+  </si>
+  <si>
+    <t>RATA02</t>
+  </si>
+  <si>
+    <t>RATA03</t>
+  </si>
+  <si>
+    <t>off</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>obj4</t>
+    <t>on</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>obj5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>obj6</t>
+    <t>RAEE01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1107,18 +1090,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4:L9"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="3" max="3" width="6.25" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="5" max="5" width="6.25" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="7" max="7" width="6.25" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="6.25" customWidth="1"/>
@@ -1132,7 +1115,7 @@
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="4" t="s">
@@ -1218,115 +1201,115 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
-        <v>1</v>
+        <v>2300</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="31">
+        <v>300</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1300</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2300</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="39" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="31">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="31">
-        <v>100</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="12">
-        <v>200</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>22</v>
       </c>
       <c r="J4" s="41">
         <v>0.2</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="12">
+        <v>2300</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="32">
+        <v>301</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1300</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2300</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="39" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="32">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="31">
-        <v>100</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="12">
-        <v>200</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>22</v>
       </c>
       <c r="J5" s="41">
         <v>0.2</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="32">
+        <v>302</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1300</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2300</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="39" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="32">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="31">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="12">
-        <v>200</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>22</v>
       </c>
       <c r="J6" s="41">
         <v>0.2</v>
@@ -1335,137 +1318,59 @@
         <v>15</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="32">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="31">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="12">
-        <v>200</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="12">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="32">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="31">
-        <v>100</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="12">
-        <v>200</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="32">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="31">
-        <v>100</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="12">
-        <v>200</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">

--- a/gameCSV/Actor_RobotObj_01_Ksetting.xlsx
+++ b/gameCSV/Actor_RobotObj_01_Ksetting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\QuantumCoreRobotReMake\gameCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38B846B9-89D1-49B0-A6C2-0350A69CC829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D2F56D4-5A4A-498D-80BD-B2966F3A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14595" yWindow="9315" windowWidth="17160" windowHeight="10980" xr2:uid="{4A88D659-4C13-44B6-A2BE-41980A9F7671}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{4A88D659-4C13-44B6-A2BE-41980A9F7671}"/>
   </bookViews>
   <sheets>
     <sheet name="Actor_RobotObj_01_Ksetting" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -127,6 +127,45 @@
   <si>
     <t>RAEE01</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Right wrist IK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Right elbow IK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RATA04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAEE02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RATA02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RATA01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11: diry_look_pos</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1129,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1225,21 +1264,23 @@
         <v>18</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J4" s="41">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
@@ -1264,24 +1305,26 @@
         <v>2300</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J5" s="41">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
@@ -1306,13 +1349,13 @@
         <v>2300</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J6" s="41">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>15</v>
@@ -1323,23 +1366,53 @@
       <c r="M6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="7"/>
+      <c r="A7" s="6">
+        <v>2301</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="32">
+        <v>300</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1301</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2301</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="12"/>

--- a/gameCSV/Actor_RobotObj_01_Ksetting.xlsx
+++ b/gameCSV/Actor_RobotObj_01_Ksetting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\QuantumCoreRobotReMake\gameCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D2F56D4-5A4A-498D-80BD-B2966F3A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E170BCFE-F657-4C11-891C-D8D849245A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{4A88D659-4C13-44B6-A2BE-41980A9F7671}"/>
+    <workbookView xWindow="16725" yWindow="5355" windowWidth="13875" windowHeight="10560" xr2:uid="{4A88D659-4C13-44B6-A2BE-41980A9F7671}"/>
   </bookViews>
   <sheets>
     <sheet name="Actor_RobotObj_01_Ksetting" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Right wrist IK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Right elbow IK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -157,15 +153,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>RATA01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11: diry_look_pos</t>
+  </si>
+  <si>
+    <t>Right wrist Rot IK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RATA05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAEE03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RATA03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>off</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RATA01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11: diry_look_pos</t>
+    <t>Right wrist Pos IK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RATA06</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1129,7 +1161,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1240,7 +1272,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>18</v>
@@ -1264,10 +1296,10 @@
         <v>18</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J4" s="41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>25</v>
@@ -1279,12 +1311,12 @@
         <v>25</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>22</v>
@@ -1305,13 +1337,13 @@
         <v>2300</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J5" s="41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>25</v>
@@ -1323,12 +1355,12 @@
         <v>25</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>23</v>
@@ -1349,13 +1381,13 @@
         <v>2300</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J6" s="41">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>15</v>
@@ -1367,84 +1399,140 @@
         <v>25</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="32">
         <v>300</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="31">
         <v>1301</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="12">
         <v>2301</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="39" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="12">
+        <v>2305</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="32">
+        <v>301</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="31">
+        <v>1302</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2302</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="12">
+        <v>2306</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="32">
+        <v>300</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="31">
+        <v>1302</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2302</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="41">
         <v>0.1</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="7"/>
+      <c r="K9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>

--- a/gameCSV/Actor_RobotObj_01_Ksetting.xlsx
+++ b/gameCSV/Actor_RobotObj_01_Ksetting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\QuantumCoreRobotReMake\gameCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E170BCFE-F657-4C11-891C-D8D849245A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDB05E8-1DC7-4115-A4D3-79A854D49C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16725" yWindow="5355" windowWidth="13875" windowHeight="10560" xr2:uid="{4A88D659-4C13-44B6-A2BE-41980A9F7671}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4A88D659-4C13-44B6-A2BE-41980A9F7671}"/>
   </bookViews>
   <sheets>
     <sheet name="Actor_RobotObj_01_Ksetting" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -198,6 +198,77 @@
   <si>
     <t>RATA06</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LATA01</t>
+  </si>
+  <si>
+    <t>LATA01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LATA02</t>
+  </si>
+  <si>
+    <t>LATA02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LATA03</t>
+  </si>
+  <si>
+    <t>LATA03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LATA04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LATA05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LATA06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Left wrist Rot IK</t>
+  </si>
+  <si>
+    <t>Left elbow IK</t>
+  </si>
+  <si>
+    <t>Left wrist Pos IK</t>
+  </si>
+  <si>
+    <t>LA01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LA02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LA03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LA01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LA02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LAEE01</t>
+  </si>
+  <si>
+    <t>LAEE02</t>
+  </si>
+  <si>
+    <t>LAEE03</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1232,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1615,100 +1686,268 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="A15" s="12">
+        <v>2401</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="31">
+        <v>400</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="31">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="12">
+        <v>2400</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="41">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="A16" s="12">
+        <v>2402</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="32">
+        <v>401</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1400</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2400</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="41">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="A17" s="12">
+        <v>2403</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="32">
+        <v>402</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="32">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="12">
+        <v>2400</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="A18" s="12">
+        <v>2404</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="32">
+        <v>400</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="31">
+        <v>1401</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="12">
+        <v>2401</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="A19" s="12">
+        <v>2405</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="32">
+        <v>401</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="31">
+        <v>1402</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="12">
+        <v>2402</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="A20" s="12">
+        <v>2406</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="32">
+        <v>400</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="31">
+        <v>1402</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="12">
+        <v>2402</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>

--- a/gameCSV/Actor_RobotObj_01_Ksetting.xlsx
+++ b/gameCSV/Actor_RobotObj_01_Ksetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\QuantumCoreRobotReMake\gameCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDB05E8-1DC7-4115-A4D3-79A854D49C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21291DD7-A4EC-4ADD-9408-99B518442F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4A88D659-4C13-44B6-A2BE-41980A9F7671}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -121,154 +121,164 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>RAEE01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Right elbow IK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RATA04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAEE02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RATA02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11: diry_look_pos</t>
+  </si>
+  <si>
+    <t>Right wrist Rot IK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RATA05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAEE03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RATA03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Right wrist Pos IK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RATA06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LATA01</t>
+  </si>
+  <si>
+    <t>LATA01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LATA02</t>
+  </si>
+  <si>
+    <t>LATA02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LATA03</t>
+  </si>
+  <si>
+    <t>LATA03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LATA04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LATA05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LATA06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Left wrist Rot IK</t>
+  </si>
+  <si>
+    <t>Left elbow IK</t>
+  </si>
+  <si>
+    <t>Left wrist Pos IK</t>
+  </si>
+  <si>
+    <t>LA01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LA02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LA03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LA01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LA02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LAEE01</t>
+  </si>
+  <si>
+    <t>LAEE02</t>
+  </si>
+  <si>
+    <t>LAEE03</t>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>on</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RAEE01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Right elbow IK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RATA04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RA01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RAEE02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RATA02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>on</t>
-    <phoneticPr fontId="1"/>
+    <t>12: dirz_look_pos</t>
   </si>
   <si>
     <t>RATA01</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>11: diry_look_pos</t>
-  </si>
-  <si>
-    <t>Right wrist Rot IK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RATA05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RA02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RAEE03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RATA03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>on</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>off</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Right wrist Pos IK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RA01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RATA06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LATA01</t>
-  </si>
-  <si>
-    <t>LATA01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LATA02</t>
-  </si>
-  <si>
-    <t>LATA02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LATA03</t>
-  </si>
-  <si>
-    <t>LATA03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LATA04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LATA05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LATA06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Left wrist Rot IK</t>
-  </si>
-  <si>
-    <t>Left elbow IK</t>
-  </si>
-  <si>
-    <t>Left wrist Pos IK</t>
-  </si>
-  <si>
-    <t>LA01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LA02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LA03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LA01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LA02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LAEE01</t>
-  </si>
-  <si>
-    <t>LAEE02</t>
-  </si>
-  <si>
-    <t>LAEE03</t>
+    <t>BD01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HDTA01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HDTA02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1: dirx_as_dirx</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1242,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1342,268 +1352,152 @@
       <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="12">
-        <v>2301</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="31">
-        <v>300</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="31">
-        <v>1300</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="12">
-        <v>2300</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="41">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
-        <v>2302</v>
+        <v>2501</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C5" s="32">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E5" s="32">
-        <v>1300</v>
+        <v>501</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="G5" s="12">
         <v>2300</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="J5" s="41">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>35</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
-        <v>2303</v>
+        <v>2502</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C6" s="32">
-        <v>302</v>
+        <v>501</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E6" s="32">
-        <v>1300</v>
+        <v>501</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="G6" s="12">
-        <v>2300</v>
+        <v>200</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="J6" s="41">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>35</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
-        <v>2304</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="32">
-        <v>300</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="31">
-        <v>1301</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="12">
-        <v>2301</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="12">
-        <v>2305</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="32">
-        <v>301</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="31">
-        <v>1302</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="12">
-        <v>2302</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="41">
-        <v>0.8</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="A8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="12">
-        <v>2306</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="32">
-        <v>300</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="31">
-        <v>1302</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="12">
-        <v>2302</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="41">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="A9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
@@ -1686,364 +1580,364 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="12">
-        <v>2401</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="31">
-        <v>400</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="31">
-        <v>1400</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="12">
-        <v>2400</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="39" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="12">
+        <v>2301</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="31">
+        <v>300</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="31">
+        <v>1300</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="12">
+        <v>2300</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="41">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="12">
+        <v>2302</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="32">
+        <v>301</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="32">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="12">
+        <v>2300</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="41">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="12">
+        <v>2303</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="32">
+        <v>302</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1300</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="12">
+        <v>2300</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="6">
+        <v>2304</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="32">
+        <v>300</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="31">
+        <v>1301</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="12">
+        <v>2301</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" s="12">
+        <v>2305</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="32">
+        <v>301</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="41">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12" t="s">
+      <c r="E25" s="31">
+        <v>1302</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="12">
+        <v>2302</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="12">
-        <v>2402</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="32">
-        <v>401</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="32">
-        <v>1400</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="12">
-        <v>2400</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="41">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12" t="s">
+      <c r="N25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="12">
+        <v>2306</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="32">
+        <v>300</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="31">
+        <v>1302</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="12">
+        <v>2302</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="13" t="s">
+      <c r="L26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="12">
-        <v>2403</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="32">
-        <v>402</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="32">
-        <v>1400</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="12">
-        <v>2400</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="M26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="12">
-        <v>2404</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="32">
-        <v>400</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="31">
-        <v>1401</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="12">
-        <v>2401</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="12">
-        <v>2405</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="32">
-        <v>401</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="31">
-        <v>1402</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="12">
-        <v>2402</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="41">
-        <v>0.8</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="12">
-        <v>2406</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="32">
-        <v>400</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="31">
-        <v>1402</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="12">
-        <v>2402</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="41">
-        <v>0.1</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="N26" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
@@ -2126,100 +2020,268 @@
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
+      <c r="A32" s="12">
+        <v>2401</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="31">
+        <v>400</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="31">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="12">
+        <v>2400</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="41">
+        <v>0</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
+      <c r="A33" s="12">
+        <v>2402</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="32">
+        <v>401</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="32">
+        <v>1400</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="12">
+        <v>2400</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="41">
+        <v>0</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
+      <c r="A34" s="12">
+        <v>2403</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="32">
+        <v>402</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="32">
+        <v>1400</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="12">
+        <v>2400</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
+      <c r="A35" s="12">
+        <v>2404</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="32">
+        <v>400</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="31">
+        <v>1401</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2401</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
+      <c r="A36" s="12">
+        <v>2405</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="32">
+        <v>401</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="31">
+        <v>1402</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="12">
+        <v>2402</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
+      <c r="A37" s="12">
+        <v>2406</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="32">
+        <v>400</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="31">
+        <v>1402</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="12">
+        <v>2402</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="6"/>

--- a/gameCSV/Actor_RobotObj_01_Ksetting.xlsx
+++ b/gameCSV/Actor_RobotObj_01_Ksetting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\QuantumCoreRobotReMake\gameCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21291DD7-A4EC-4ADD-9408-99B518442F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7E4F17B2-284C-4C37-90FD-41592FC8F9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4A88D659-4C13-44B6-A2BE-41980A9F7671}"/>
+    <workbookView minimized="1" xWindow="2415" yWindow="5535" windowWidth="13875" windowHeight="10560" xr2:uid="{4A88D659-4C13-44B6-A2BE-41980A9F7671}"/>
   </bookViews>
   <sheets>
     <sheet name="Actor_RobotObj_01_Ksetting" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="70">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -279,6 +279,14 @@
   </si>
   <si>
     <t>1: dirx_as_dirx</t>
+  </si>
+  <si>
+    <t>Head : look target pos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Head : keep head dir x as body</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1242,7 +1250,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1407,7 +1415,9 @@
       <c r="M5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
@@ -1449,7 +1459,9 @@
       <c r="M6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
